--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_st03.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_st03.xlsx
@@ -868,7 +868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="인사부 오퍼레이터"]뭐라고요??
+    <t xml:space="preserve">[name="인사부 오퍼레이터"]네??
 </t>
   </si>
   <si>
